--- a/Data/Processed/Angiosperms/missing_powo_ipni/Clusiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Clusiaceae.xlsx
@@ -2412,7 +2412,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamakoare 6. 1887 </t>
+          <t>Tamakoare 6. 1887</t>
         </is>
       </c>
       <c r="J166" t="b">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 4: 162, fig. 1985 </t>
+          <t>Bradea 4: 162, fig. 1985</t>
         </is>
       </c>
       <c r="J167" t="b">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sp. Pl., ed. 2. 2: 1102 (-1103). 1763 [Aug 1763] </t>
+          <t>Sp. Pl., ed. 2. 2: 1102 (-1103). 1763 [Aug 1763]</t>
         </is>
       </c>
       <c r="J169" t="b">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodriguésia 36(60): 60 (-61), fig. 1984 </t>
+          <t>Rodriguésia 36(60): 60 (-61), fig. 1984</t>
         </is>
       </c>
       <c r="J170" t="b">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 35(5): 353. 1962 </t>
+          <t>Contr. U.S. Natl. Herb. 35(5): 353. 1962</t>
         </is>
       </c>
       <c r="J171" t="b">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 1: 313. 1901 </t>
+          <t>Bull. Herb. Boissier ser. 2, 1: 313. 1901</t>
         </is>
       </c>
       <c r="J172" t="b">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 1: 313. 1901 </t>
+          <t>Bull. Herb. Boissier ser. 2, 1: 313. 1901</t>
         </is>
       </c>
       <c r="J173" t="b">
